--- a/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P36B08_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>12.25357033624741</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29.22237255056127</v>
+        <v>29.22237255056129</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.767543500466756</v>
@@ -664,7 +664,7 @@
         <v>9.049811630744376</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>25.10403523438556</v>
+        <v>25.10403523438553</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.4146028734524</v>
+        <v>4.787566928198926</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.996915117514293</v>
+        <v>7.720624282824613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>25.37072244661592</v>
+        <v>25.61229648109065</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.798523581378309</v>
+        <v>4.158394557853603</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.932784320397495</v>
+        <v>3.079574384987507</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>19.16121790730754</v>
+        <v>19.00342370796667</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.634049281265784</v>
+        <v>5.480546868277965</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.218802787023225</v>
+        <v>6.208004735347364</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>22.87302725747907</v>
+        <v>22.91438169056788</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.78443902191762</v>
+        <v>12.58774539001318</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.64445364704111</v>
+        <v>16.46280177001368</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>32.64201601139257</v>
+        <v>32.72739330892758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.07663942310533</v>
+        <v>11.24482030500038</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.02208214853916</v>
+        <v>9.962750216677794</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>24.43064968630082</v>
+        <v>24.45401694054496</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.92341956197237</v>
+        <v>10.73947820835905</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.69224544202353</v>
+        <v>11.74947571536979</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>27.40272396313336</v>
+        <v>27.30181105347191</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.1909007895818486</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.4552611067857546</v>
+        <v>0.4552611067857549</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1065944858719562</v>
@@ -769,7 +769,7 @@
         <v>0.1310522086736255</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.3635367672085054</v>
+        <v>0.3635367672085051</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06697487637453517</v>
+        <v>0.07171453846826224</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1207824216763774</v>
+        <v>0.1142703029538598</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.3808930035903083</v>
+        <v>0.3828071124884742</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.0646791180305431</v>
+        <v>0.05609246113000232</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03962547382286218</v>
+        <v>0.04141288188586926</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2570921597559656</v>
+        <v>0.2543075193925694</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07972209175000233</v>
+        <v>0.07782414545923005</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08785432670611766</v>
+        <v>0.08883233275862747</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.324956879831155</v>
+        <v>0.3237886109556585</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2077273288966746</v>
+        <v>0.2031412112213671</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2681981039853308</v>
+        <v>0.265756337397961</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.5315716243605063</v>
+        <v>0.5305568855527549</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1552405326658551</v>
+        <v>0.1578658709954373</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1393162288915507</v>
+        <v>0.1416046311856252</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.348407465096322</v>
+        <v>0.3483743839927003</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1609168686511726</v>
+        <v>0.1587927180153232</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1729478696803372</v>
+        <v>0.1741756704318201</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.409065303492979</v>
+        <v>0.4037770757906693</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.41618191268366</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>26.20567642085248</v>
+        <v>26.20567642085245</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.51805931714209</v>
@@ -878,7 +878,7 @@
         <v>6.558620174659935</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>29.31661518349864</v>
+        <v>29.31661518349866</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.527137027360459</v>
+        <v>4.304862983448761</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.112674345861085</v>
+        <v>4.116594753779809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29.48740785022817</v>
+        <v>29.53415283697473</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4.718092257271749</v>
+        <v>4.682760396701084</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.421204915187574</v>
+        <v>2.489774821845182</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>23.84836058356131</v>
+        <v>23.69875127907194</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.119125310161878</v>
+        <v>5.207645389332271</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.347394914863625</v>
+        <v>4.333497899521603</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>27.51800790025359</v>
+        <v>27.5799261705329</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.75019043260138</v>
+        <v>10.57206697509581</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.63572399175642</v>
+        <v>10.62606002717278</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34.96515293563335</v>
+        <v>34.78763839159236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.55920820309247</v>
+        <v>10.71715564267949</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>8.574128087904901</v>
+        <v>8.407239120089114</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>28.66429689611237</v>
+        <v>28.47051852105091</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.77634799323158</v>
+        <v>9.934228857590705</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.718205616283697</v>
+        <v>8.682531428141248</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>31.19147982121464</v>
+        <v>31.28574316052955</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.07773299746511243</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3761036485911434</v>
+        <v>0.3761036485911431</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1147116792633507</v>
@@ -983,7 +983,7 @@
         <v>0.1000724125932714</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.4473173216854805</v>
+        <v>0.4473173216854809</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.0706122381479151</v>
+        <v>0.06763933142017563</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06315497747509148</v>
+        <v>0.06541342578234462</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4598055295638136</v>
+        <v>0.4637468198403349</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.06627161140754025</v>
+        <v>0.0656789083031924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03444711292859914</v>
+        <v>0.03534470600530501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3330836107333788</v>
+        <v>0.3312472298609469</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07630160759373618</v>
+        <v>0.07808880190322702</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.0644186230297786</v>
+        <v>0.06484573714473928</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4087623039067334</v>
+        <v>0.4113557795435785</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.177986982870592</v>
+        <v>0.1762573565775135</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1746502258025956</v>
+        <v>0.1793616571035314</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5878453662790302</v>
+        <v>0.5865366522552862</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1564217755805604</v>
+        <v>0.1581525984542636</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.125998233633642</v>
+        <v>0.1251261998026435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4249978610477972</v>
+        <v>0.422935239678905</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1519198752853557</v>
+        <v>0.1558246723037206</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1361977998129403</v>
+        <v>0.1344796992156624</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.4868671254098314</v>
+        <v>0.4899056555303927</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>12.07462343902961</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>30.50443639303068</v>
+        <v>30.50443639303067</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>14.11184226473947</v>
@@ -1092,7 +1092,7 @@
         <v>11.71185565813828</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>28.29834522439448</v>
+        <v>28.29834522439447</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.272973498817167</v>
+        <v>2.646163197274327</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.975391402300107</v>
+        <v>6.812791456258633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>26.02069317944753</v>
+        <v>26.03750064950871</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8.643956696175966</v>
+        <v>8.977701590051048</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.626348422289603</v>
+        <v>5.854679533696583</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>21.06766529327534</v>
+        <v>21.77702968717953</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.741829122423689</v>
+        <v>7.716276664045784</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.958544818287281</v>
+        <v>7.277528980365525</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>25.26861880099316</v>
+        <v>25.11130797985063</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.51547495350392</v>
+        <v>14.54936796661468</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.79823168712592</v>
+        <v>17.81381597120316</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34.96092789207474</v>
+        <v>35.18834438861177</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.3336646022958</v>
+        <v>19.19340099510443</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.33491349890403</v>
+        <v>16.45994634823516</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>30.34301922322897</v>
+        <v>30.59630749922909</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.80918587040335</v>
+        <v>15.50903370087018</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>15.69921898567535</v>
+        <v>15.12534702776718</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>31.52239784467982</v>
+        <v>31.57850058696775</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.182294730742963</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.4605359369434935</v>
+        <v>0.4605359369434933</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1990555300988523</v>
@@ -1197,7 +1197,7 @@
         <v>0.1712372241861541</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4137457143198006</v>
+        <v>0.4137457143198005</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04677833121241702</v>
+        <v>0.04161001139858592</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.09960155601570155</v>
+        <v>0.1007132276925807</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3726379397888285</v>
+        <v>0.3711534496696922</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.1160874585397134</v>
+        <v>0.1206275249298352</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.0734556397672646</v>
+        <v>0.07960982133615725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2803709306436344</v>
+        <v>0.2927807735631213</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1085824711168844</v>
+        <v>0.1095171031045365</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1132204775888589</v>
+        <v>0.1031336590092095</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3558585272944489</v>
+        <v>0.3529121667815412</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2452428107016934</v>
+        <v>0.2354216564576173</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2888786942252233</v>
+        <v>0.2822594962793413</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5635063219907156</v>
+        <v>0.569104936593521</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2890046364440527</v>
+        <v>0.2839304858991529</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2446991806468391</v>
+        <v>0.2470302679849273</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.456476665252783</v>
+        <v>0.4602685463247351</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2379695671722548</v>
+        <v>0.2345838746887487</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2394864067606842</v>
+        <v>0.2284330323565643</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4827198898081885</v>
+        <v>0.4842209278572849</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>7.672286096945791</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>27.86841011883163</v>
+        <v>27.86841011883164</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.314312443933904</v>
+        <v>5.663158634720862</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.441913680022167</v>
+        <v>6.811410139681924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>29.18370268428387</v>
+        <v>29.12594704550504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.464812585781911</v>
+        <v>6.448577133443257</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.18520778491643</v>
+        <v>4.305018255326849</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>22.8808545663234</v>
+        <v>23.0087926818785</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>6.693534391649157</v>
+        <v>6.742161707590228</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>6.195677570648924</v>
+        <v>6.188390609969646</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>26.59660756670694</v>
+        <v>26.65616276876202</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.080286942612</v>
+        <v>10.26519812049929</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.17354812337507</v>
+        <v>11.36430961754459</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32.8452087674231</v>
+        <v>33.09387105725243</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.42752823677575</v>
+        <v>10.68776510708709</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.443587311736302</v>
+        <v>8.438450917117441</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>26.22389409102918</v>
+        <v>26.34035270677465</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.871847600501129</v>
+        <v>9.752290573168649</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.174906930870343</v>
+        <v>9.147210796113546</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>29.15624241975319</v>
+        <v>29.13342037684027</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1141373184592258</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.4145864166811546</v>
+        <v>0.4145864166811548</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.0816350670231471</v>
+        <v>0.08781969653398246</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.09931698532698956</v>
+        <v>0.1063663746429743</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4510535911031384</v>
+        <v>0.4510546620567325</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.08891244056543604</v>
+        <v>0.08963982473797574</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05884444628668824</v>
+        <v>0.05881524047876823</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3152594525388989</v>
+        <v>0.3173570186989629</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09803347515519351</v>
+        <v>0.09910390972889052</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09179907370086125</v>
+        <v>0.09061240208299773</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3895590113941389</v>
+        <v>0.3905453238143559</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1616685372895467</v>
+        <v>0.1642792271141646</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1805888318122541</v>
+        <v>0.1836338827977896</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5319705857113143</v>
+        <v>0.5388066688143029</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1499169253991877</v>
+        <v>0.1526169505929631</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1216266735274078</v>
+        <v>0.1200570184252438</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3762709279151819</v>
+        <v>0.3790600232156605</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1484919371217222</v>
+        <v>0.146874852235851</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1385432471015003</v>
+        <v>0.1379137784266071</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4413257915628561</v>
+        <v>0.4407772545626718</v>
       </c>
     </row>
     <row r="28">
